--- a/biology/Zoologie/Cyrtophora_moluccensis/Cyrtophora_moluccensis.xlsx
+++ b/biology/Zoologie/Cyrtophora_moluccensis/Cyrtophora_moluccensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtophora moluccensis est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtophora moluccensis est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Asie du Sud, en Asie de l'Est, en Asie du Sud-Est et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Asie du Sud, en Asie de l'Est, en Asie du Sud-Est et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle mesure 15 mm et le mâle 4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle mesure 15 mm et le mâle 4 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 20.5, 28/10/2019)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 20.5, 28/10/2019) :
 Cyrtophora moluccensis cupidinea Thorell, 1875 de Nouvelle-Calédonie
 Cyrtophora moluccensis margaritacea (Doleschall, 1859) de Java
 Cyrtophora moluccensis moluccensis (Doleschall, 1857)</t>
@@ -606,10 +624,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Epeira moluccensis par Doleschall en 1857.
-Les sous-espèces Cyrtophora moluccensis albidinota[4], Cyrtophora moluccensis bukae[4] et Cyrtophora moluccensis rubicundinota[4] ont été placées en synonymie avec Cyrtophora moluccensis moluccensis par Nentwig, Blick, Gloor, Jäger et Kropf en 2019[5].
+Les sous-espèces Cyrtophora moluccensis albidinota, Cyrtophora moluccensis bukae et Cyrtophora moluccensis rubicundinota ont été placées en synonymie avec Cyrtophora moluccensis moluccensis par Nentwig, Blick, Gloor, Jäger et Kropf en 2019.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Doleschall, 1857 : Bijdrage tot de Kenntis der Arachniden van den Indischen Archipel. Verhandelingen der Natuurkundige Vereeniging in Nederlandsch-Indie (Acta Societatis Scientiarum Indo-Neerlandicae), vol. 13, p. 339-434.
 Doleschall, 1859 : Tweede Bijdrage tot de Kenntis der Arachniden van den Indischen Archipel. Acta Societatis Scientiarum Indo-Neerlandicae, vol. 5, p. 1-60.
